--- a/Carlos.xlsx
+++ b/Carlos.xlsx
@@ -13,10 +13,106 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+  <si>
+    <t>WEEK 1</t>
+  </si>
+  <si>
+    <t>DAY 1</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>3x12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>4x6</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>4x8</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>4x12</t>
+  </si>
+  <si>
+    <t>DAY 2</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>4x10</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>3x10</t>
+  </si>
+  <si>
+    <t>DAY 3</t>
+  </si>
+  <si>
+    <t>3x6</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>DAY 4</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>DAY 5</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>3x8</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +136,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +460,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>